--- a/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D1B673-947B-42DA-A373-5B2D945A4928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC8E52B-A672-4709-800E-9912A127815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7E174A4-663A-4903-858D-949D59AB7F17}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2F38AE-745F-458B-B16A-5C0DD8E23DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>29,34%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,66%</t>
   </si>
   <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>20,29%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>49,6%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>50,4%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,64 +308,58 @@
     <t>24,41%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>59,89%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>42,07%</t>
@@ -374,31 +368,25 @@
     <t>39,73%</t>
   </si>
   <si>
-    <t>47,77%</t>
+    <t>47,97%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>52,03%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -407,10 +395,10 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD4EF8-351F-43A8-8401-B2366FC28EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AFE556-9938-4DEB-98BC-E28AFAAB0FBA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1724,13 +1712,13 @@
         <v>787190</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2325</v>
@@ -1739,28 +1727,28 @@
         <v>1613620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3222</v>
       </c>
       <c r="N19" s="7">
-        <v>2400810</v>
+        <v>2400809</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>2598038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>3042</v>
@@ -1790,13 +1778,13 @@
         <v>2221961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>5521</v>
@@ -1805,13 +1793,13 @@
         <v>4819999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1841,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC8E52B-A672-4709-800E-9912A127815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4786FDCF-8398-4CAD-8B45-027D062CB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2F38AE-745F-458B-B16A-5C0DD8E23DB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBAEEF66-A49E-4486-BBDC-DF1B975063B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,52%</t>
@@ -188,7 +188,7 @@
     <t>71,34%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>20,29%</t>
@@ -245,7 +245,7 @@
     <t>72,63%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>24,14%</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AFE556-9938-4DEB-98BC-E28AFAAB0FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6D1306-C7D8-43B7-AF36-0380C8DB69B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4786FDCF-8398-4CAD-8B45-027D062CB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755540C1-BCD2-4D05-A0AE-1ECDFEFC2777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBAEEF66-A49E-4486-BBDC-DF1B975063B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DFBF50C-18EE-4B8D-B407-DFAC4E08B2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>29,34%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,66%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,199 +194,211 @@
     <t>20,29%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,03%</t>
+    <t>52,23%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -395,10 +407,10 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6D1306-C7D8-43B7-AF36-0380C8DB69B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CB14-B9D9-4660-96BE-6B0597797FF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1712,13 +1724,13 @@
         <v>787190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2325</v>
@@ -1727,28 +1739,28 @@
         <v>1613620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3222</v>
       </c>
       <c r="N19" s="7">
-        <v>2400809</v>
+        <v>2400810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1775,13 @@
         <v>2598038</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3042</v>
@@ -1778,13 +1790,13 @@
         <v>2221961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5521</v>
@@ -1793,13 +1805,13 @@
         <v>4819999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1853,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755540C1-BCD2-4D05-A0AE-1ECDFEFC2777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28BF439-4C8C-4077-8588-CBD95E4E0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DFBF50C-18EE-4B8D-B407-DFAC4E08B2CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{011762D3-40BF-416A-BAE6-A5C25CB82D75}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CB14-B9D9-4660-96BE-6B0597797FF9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96176BE-3846-43F2-A10F-F45B2FB09747}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D4" s="7">
-        <v>29918</v>
+        <v>157098</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="I4" s="7">
-        <v>56878</v>
+        <v>274039</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>149</v>
+        <v>770</v>
       </c>
       <c r="N4" s="7">
-        <v>86796</v>
+        <v>431137</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="D5" s="7">
-        <v>72064</v>
+        <v>478343</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>133</v>
+        <v>686</v>
       </c>
       <c r="I5" s="7">
-        <v>73855</v>
+        <v>451291</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>212</v>
+        <v>1201</v>
       </c>
       <c r="N5" s="7">
-        <v>145919</v>
+        <v>929635</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="D7" s="7">
-        <v>134823</v>
+        <v>197650</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>445</v>
+        <v>664</v>
       </c>
       <c r="I7" s="7">
-        <v>236933</v>
+        <v>386459</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>621</v>
+        <v>902</v>
       </c>
       <c r="N7" s="7">
-        <v>371756</v>
+        <v>584109</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>436</v>
+        <v>726</v>
       </c>
       <c r="D8" s="7">
-        <v>415000</v>
+        <v>995214</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>553</v>
+        <v>853</v>
       </c>
       <c r="I8" s="7">
-        <v>383034</v>
+        <v>572192</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>989</v>
+        <v>1579</v>
       </c>
       <c r="N8" s="7">
-        <v>798034</v>
+        <v>1567407</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D10" s="7">
-        <v>210882</v>
+        <v>167575</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>664</v>
+        <v>463</v>
       </c>
       <c r="I10" s="7">
-        <v>424619</v>
+        <v>500704</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>902</v>
+        <v>644</v>
       </c>
       <c r="N10" s="7">
-        <v>635502</v>
+        <v>668279</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>726</v>
+        <v>495</v>
       </c>
       <c r="D11" s="7">
-        <v>828366</v>
+        <v>537105</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>853</v>
+        <v>584</v>
       </c>
       <c r="I11" s="7">
-        <v>635460</v>
+        <v>432662</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1579</v>
+        <v>1079</v>
       </c>
       <c r="N11" s="7">
-        <v>1463825</v>
+        <v>969767</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="D13" s="7">
-        <v>175953</v>
+        <v>225274</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>643</v>
       </c>
       <c r="I13" s="7">
-        <v>433717</v>
+        <v>472548</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>644</v>
+        <v>906</v>
       </c>
       <c r="N13" s="7">
-        <v>609669</v>
+        <v>697822</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="D14" s="7">
-        <v>552819</v>
+        <v>701557</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>584</v>
+        <v>919</v>
       </c>
       <c r="I14" s="7">
-        <v>440654</v>
+        <v>622384</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1079</v>
+        <v>1662</v>
       </c>
       <c r="N14" s="7">
-        <v>993473</v>
+        <v>1323941</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>263</v>
+        <v>897</v>
       </c>
       <c r="D16" s="7">
-        <v>235612</v>
+        <v>747597</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2325</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1633750</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>643</v>
-      </c>
-      <c r="I16" s="7">
-        <v>461474</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3222</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2381347</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>906</v>
-      </c>
-      <c r="N16" s="7">
-        <v>697086</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>743</v>
+        <v>2479</v>
       </c>
       <c r="D17" s="7">
-        <v>729791</v>
+        <v>2712220</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3042</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2078530</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>919</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688958</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5521</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4790750</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1662</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1418749</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>897</v>
-      </c>
-      <c r="D19" s="7">
-        <v>787190</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2325</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1613620</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3222</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2400810</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2479</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2598038</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3042</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2221961</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5521</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4819999</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
